--- a/化矿文档.xlsx
+++ b/化矿文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>三钛合金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,110 +173,306 @@
     <t>Golden Omber (+10%)</t>
   </si>
   <si>
+    <t>Luminous Kernite (+5%)</t>
+  </si>
+  <si>
+    <t>Fiery Kernite (+10%)</t>
+  </si>
+  <si>
+    <t>Jaspet</t>
+  </si>
+  <si>
+    <t>Pure Jaspet (+5%)</t>
+  </si>
+  <si>
+    <t>Pristine Jaspet (+10%)</t>
+  </si>
+  <si>
+    <t>Hemorphite</t>
+  </si>
+  <si>
+    <t>Vivid Hemorphite (+5%)</t>
+  </si>
+  <si>
+    <t>Radiant Hemorphite (+10%)</t>
+  </si>
+  <si>
+    <t>Iridescent Gneiss (+5%)</t>
+  </si>
+  <si>
+    <t>Prismatic Gneiss (+10%)</t>
+  </si>
+  <si>
+    <t>Dark Ochre</t>
+  </si>
+  <si>
+    <t>Onyx Ochre (+5%)</t>
+  </si>
+  <si>
+    <t>Obsidian Ochre (+10%)</t>
+  </si>
+  <si>
+    <t>Crokite</t>
+  </si>
+  <si>
+    <t>Sharp Crokite (+5%)</t>
+  </si>
+  <si>
+    <t>Crystalline Crokite (+10%)</t>
+  </si>
+  <si>
+    <t>Bright Spodumain (+5%)</t>
+  </si>
+  <si>
+    <t>Gleaming Spodumain (+10%)</t>
+  </si>
+  <si>
+    <t>Bistot</t>
+  </si>
+  <si>
+    <t>Triclinic Bistot (+5%)</t>
+  </si>
+  <si>
+    <t>Monoclinic Bistot (+10%)</t>
+  </si>
+  <si>
+    <t>Arkanor</t>
+  </si>
+  <si>
+    <t>Crimson Arkonor (+5%)</t>
+  </si>
+  <si>
+    <t>Prime Arkonor (+10%)</t>
+  </si>
+  <si>
+    <t>奥贝尔石</t>
+  </si>
+  <si>
+    <t>银色奥贝尔石</t>
+  </si>
+  <si>
+    <t>金色奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度金色奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度银色奥贝尔石</t>
+  </si>
+  <si>
     <t>Kernite</t>
-  </si>
-  <si>
-    <t>Luminous Kernite (+5%)</t>
-  </si>
-  <si>
-    <t>Fiery Kernite (+10%)</t>
-  </si>
-  <si>
-    <t>Jaspet</t>
-  </si>
-  <si>
-    <t>Pure Jaspet (+5%)</t>
-  </si>
-  <si>
-    <t>Pristine Jaspet (+10%)</t>
-  </si>
-  <si>
-    <t>Hemorphite</t>
-  </si>
-  <si>
-    <t>Vivid Hemorphite (+5%)</t>
-  </si>
-  <si>
-    <t>Radiant Hemorphite (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水硼砂</t>
+  </si>
+  <si>
+    <t>发光水硼砂</t>
+  </si>
+  <si>
+    <t>灼热水硼砂</t>
+  </si>
+  <si>
+    <t>高密度灼热水硼砂</t>
+  </si>
+  <si>
+    <t>高密度水硼砂</t>
+  </si>
+  <si>
+    <t>高密度发光水硼砂</t>
+  </si>
+  <si>
+    <t>杰斯贝矿</t>
+  </si>
+  <si>
+    <t>纯杰斯贝矿</t>
+  </si>
+  <si>
+    <t>朴质杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度朴质杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度纯杰斯贝矿</t>
+  </si>
+  <si>
+    <t>希莫非特</t>
+  </si>
+  <si>
+    <t>多色希莫非特</t>
+  </si>
+  <si>
+    <t>辐射希莫非特</t>
+  </si>
+  <si>
+    <t>高密度希莫非特</t>
+  </si>
+  <si>
+    <t>高密度辐射希莫非特</t>
+  </si>
+  <si>
+    <t>高密度多色希莫非特</t>
+  </si>
+  <si>
+    <t>Glazed Hedbergite (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hedbergite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同位原矿</t>
+  </si>
+  <si>
+    <t>玻璃状同位原矿</t>
+  </si>
+  <si>
+    <t>光面同位原矿</t>
+  </si>
+  <si>
+    <t>高密度光面同位原矿</t>
+  </si>
+  <si>
+    <t>高密度同位原矿</t>
+  </si>
+  <si>
+    <t>高密度玻璃状同位原矿</t>
   </si>
   <si>
     <t>Vitric Hedbergite (+5%)</t>
-  </si>
-  <si>
-    <t>Glazed Hedbergite (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gneiss</t>
-  </si>
-  <si>
-    <t>Iridescent Gneiss (+5%)</t>
-  </si>
-  <si>
-    <t>Prismatic Gneiss (+10%)</t>
-  </si>
-  <si>
-    <t>Dark Ochre</t>
-  </si>
-  <si>
-    <t>Onyx Ochre (+5%)</t>
-  </si>
-  <si>
-    <t>Obsidian Ochre (+10%)</t>
-  </si>
-  <si>
-    <t>Crokite</t>
-  </si>
-  <si>
-    <t>Sharp Crokite (+5%)</t>
-  </si>
-  <si>
-    <t>Crystalline Crokite (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片麻岩</t>
+  </si>
+  <si>
+    <t>彩色片麻岩</t>
+  </si>
+  <si>
+    <t>棱柱片麻岩</t>
+  </si>
+  <si>
+    <t>高密度片麻岩</t>
+  </si>
+  <si>
+    <t>高密度彩色片麻岩</t>
+  </si>
+  <si>
+    <t>高密度棱柱片麻岩</t>
+  </si>
+  <si>
+    <t>条纹赭</t>
+  </si>
+  <si>
+    <t>黑曜赭石</t>
+  </si>
+  <si>
+    <t>高密度黑赭石</t>
+  </si>
+  <si>
+    <t>高密度黑曜赭石</t>
+  </si>
+  <si>
+    <t>高密度条纹赭</t>
+  </si>
+  <si>
+    <t>黑赭石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克洛基石</t>
+  </si>
+  <si>
+    <t>斜克洛基石</t>
+  </si>
+  <si>
+    <t>克洛基水晶</t>
+  </si>
+  <si>
+    <t>高密度克洛基石</t>
+  </si>
+  <si>
+    <t>高密度克洛基水晶</t>
+  </si>
+  <si>
+    <t>高密度斜克洛基石</t>
   </si>
   <si>
     <t>Spodumain</t>
-  </si>
-  <si>
-    <t>Bright Spodumain (+5%)</t>
-  </si>
-  <si>
-    <t>Gleaming Spodumain (+10%)</t>
-  </si>
-  <si>
-    <t>Bistot</t>
-  </si>
-  <si>
-    <t>Triclinic Bistot (+5%)</t>
-  </si>
-  <si>
-    <t>Monoclinic Bistot (+10%)</t>
-  </si>
-  <si>
-    <t>Arkanor</t>
-  </si>
-  <si>
-    <t>Crimson Arkonor (+5%)</t>
-  </si>
-  <si>
-    <t>Prime Arkonor (+10%)</t>
-  </si>
-  <si>
-    <t>Mercoxit</t>
-  </si>
-  <si>
-    <t>Magma Mercoxit (+5%)</t>
-  </si>
-  <si>
-    <t>Vitreous Mercoxit (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰岩</t>
+  </si>
+  <si>
+    <t>亮灰岩</t>
+  </si>
+  <si>
+    <t>发光灰岩</t>
+  </si>
+  <si>
+    <t>高密度亮灰岩</t>
+  </si>
+  <si>
+    <t>高密度发光灰岩</t>
+  </si>
+  <si>
+    <t>高密度灰岩</t>
+  </si>
+  <si>
+    <t>双多特石</t>
+  </si>
+  <si>
+    <t>三晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>单晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>高密度双多特石</t>
+  </si>
+  <si>
+    <t>高密度单晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>高密度三晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>艾克诺岩</t>
+  </si>
+  <si>
+    <t>红色艾克诺岩</t>
+  </si>
+  <si>
+    <t>艾克诺精华岩</t>
+  </si>
+  <si>
+    <t>高密度艾克诺岩</t>
+  </si>
+  <si>
+    <t>高密度红色艾克诺岩</t>
+  </si>
+  <si>
+    <t>高密度艾克诺精华岩</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +486,17 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,14 +516,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -618,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -990,6 +1213,15 @@
       <c r="B21">
         <v>100</v>
       </c>
+      <c r="C21">
+        <v>113</v>
+      </c>
+      <c r="D21">
+        <v>224</v>
+      </c>
+      <c r="E21">
+        <v>113</v>
+      </c>
       <c r="J21" t="s">
         <v>44</v>
       </c>
@@ -1001,6 +1233,15 @@
       <c r="B22">
         <v>100</v>
       </c>
+      <c r="C22">
+        <v>118</v>
+      </c>
+      <c r="D22">
+        <v>235</v>
+      </c>
+      <c r="E22">
+        <v>118</v>
+      </c>
       <c r="J22" t="s">
         <v>45</v>
       </c>
@@ -1012,6 +1253,15 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>107</v>
+      </c>
+      <c r="D23">
+        <v>213</v>
+      </c>
+      <c r="E23">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
@@ -1020,6 +1270,15 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>224</v>
+      </c>
+      <c r="E24">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1028,185 +1287,1289 @@
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="C25">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>235</v>
+      </c>
+      <c r="E25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>800</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>85</v>
+      </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>840</v>
+      </c>
+      <c r="D27">
+        <v>105</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>880</v>
+      </c>
+      <c r="D28">
+        <v>110</v>
+      </c>
+      <c r="F28">
+        <v>94</v>
+      </c>
       <c r="J28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="J29" t="s">
+    <row r="29" spans="1:10" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>840</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="F30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>880</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25">
+      <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>134</v>
+      </c>
+      <c r="E32">
+        <v>267</v>
+      </c>
+      <c r="F32">
+        <v>134</v>
+      </c>
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25">
+      <c r="A33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>141</v>
+      </c>
+      <c r="E33">
+        <v>281</v>
+      </c>
+      <c r="F33">
+        <v>141</v>
+      </c>
+      <c r="J33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="J30" t="s">
+    <row r="34" spans="1:10" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>148</v>
+      </c>
+      <c r="E34">
+        <v>294</v>
+      </c>
+      <c r="F34">
+        <v>148</v>
+      </c>
+      <c r="J34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="J31" t="s">
+    <row r="35" spans="1:10" ht="14.25">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>134</v>
+      </c>
+      <c r="E35">
+        <v>267</v>
+      </c>
+      <c r="F35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>141</v>
+      </c>
+      <c r="E36">
+        <v>281</v>
+      </c>
+      <c r="F36">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25">
+      <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>148</v>
+      </c>
+      <c r="E37">
+        <v>294</v>
+      </c>
+      <c r="F37">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25">
+      <c r="A38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>350</v>
+      </c>
+      <c r="G38">
+        <v>75</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="J32" t="s">
+    <row r="39" spans="1:10" ht="14.25">
+      <c r="A39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>368</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
-      <c r="J33" t="s">
+    <row r="40" spans="1:10" ht="14.25">
+      <c r="A40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>385</v>
+      </c>
+      <c r="G40">
+        <v>83</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
-      <c r="J34" t="s">
+    <row r="41" spans="1:10" ht="14.25">
+      <c r="A41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>350</v>
+      </c>
+      <c r="G41">
+        <v>75</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>368</v>
+      </c>
+      <c r="G42">
+        <v>79</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25">
+      <c r="A43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>385</v>
+      </c>
+      <c r="G43">
+        <v>83</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25">
+      <c r="A44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>2200</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>120</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="10:10">
-      <c r="J35" t="s">
+    <row r="45" spans="1:10" ht="14.25">
+      <c r="A45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>2310</v>
+      </c>
+      <c r="F45">
+        <v>105</v>
+      </c>
+      <c r="G45">
+        <v>126</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="10:10">
-      <c r="J36" t="s">
+    <row r="46" spans="1:10" ht="14.25">
+      <c r="A46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>2420</v>
+      </c>
+      <c r="F46">
+        <v>110</v>
+      </c>
+      <c r="G46">
+        <v>132</v>
+      </c>
+      <c r="H46">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="10:10">
-      <c r="J37" t="s">
+    <row r="47" spans="1:10" ht="14.25">
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2200</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>120</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2310</v>
+      </c>
+      <c r="F48">
+        <v>105</v>
+      </c>
+      <c r="G48">
+        <v>126</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25">
+      <c r="A49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2420</v>
+      </c>
+      <c r="F49">
+        <v>110</v>
+      </c>
+      <c r="G49">
+        <v>132</v>
+      </c>
+      <c r="H49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25">
+      <c r="A50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>200</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25">
+      <c r="A51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>1050</v>
+      </c>
+      <c r="F51">
+        <v>210</v>
+      </c>
+      <c r="G51">
+        <v>105</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25">
+      <c r="A52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>1100</v>
+      </c>
+      <c r="F52">
+        <v>220</v>
+      </c>
+      <c r="G52">
+        <v>110</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25">
+      <c r="A53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>200</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25">
+      <c r="A54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1050</v>
+      </c>
+      <c r="F54">
+        <v>210</v>
+      </c>
+      <c r="G54">
+        <v>105</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25">
+      <c r="A55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1100</v>
+      </c>
+      <c r="F55">
+        <v>220</v>
+      </c>
+      <c r="G55">
+        <v>110</v>
+      </c>
+      <c r="H55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.25">
+      <c r="A56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>2200</v>
+      </c>
+      <c r="E56">
+        <v>2400</v>
+      </c>
+      <c r="F56">
+        <v>300</v>
+      </c>
+      <c r="J56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25">
+      <c r="A57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>2310</v>
+      </c>
+      <c r="E57">
+        <v>2520</v>
+      </c>
+      <c r="F57">
+        <v>315</v>
+      </c>
+      <c r="J57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="10:10">
-      <c r="J38" t="s">
+    <row r="58" spans="1:10" ht="14.25">
+      <c r="A58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>2420</v>
+      </c>
+      <c r="E58">
+        <v>2640</v>
+      </c>
+      <c r="F58">
+        <v>330</v>
+      </c>
+      <c r="J58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="10:10">
-      <c r="J39" t="s">
+    <row r="59" spans="1:10" ht="14.25">
+      <c r="A59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2200</v>
+      </c>
+      <c r="E59">
+        <v>2400</v>
+      </c>
+      <c r="F59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25">
+      <c r="A60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2310</v>
+      </c>
+      <c r="E60">
+        <v>2520</v>
+      </c>
+      <c r="F60">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.25">
+      <c r="A61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2420</v>
+      </c>
+      <c r="E61">
+        <v>2640</v>
+      </c>
+      <c r="F61">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62">
+        <v>10000</v>
+      </c>
+      <c r="F62">
+        <v>1600</v>
+      </c>
+      <c r="G62">
+        <v>120</v>
+      </c>
+      <c r="J62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="10:10">
-      <c r="J40" t="s">
+    <row r="63" spans="1:10" ht="14.25">
+      <c r="A63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>10500</v>
+      </c>
+      <c r="F63">
+        <v>1680</v>
+      </c>
+      <c r="G63">
+        <v>126</v>
+      </c>
+      <c r="J63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="10:10">
-      <c r="J41" t="s">
+    <row r="64" spans="1:10" ht="14.25">
+      <c r="A64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>11000</v>
+      </c>
+      <c r="F64">
+        <v>1760</v>
+      </c>
+      <c r="G64">
+        <v>132</v>
+      </c>
+      <c r="J64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="10:10">
-      <c r="J42" t="s">
+    <row r="65" spans="1:10" ht="14.25">
+      <c r="A65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>10000</v>
+      </c>
+      <c r="F65">
+        <v>1600</v>
+      </c>
+      <c r="G65">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25">
+      <c r="A66" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>10500</v>
+      </c>
+      <c r="F66">
+        <v>1680</v>
+      </c>
+      <c r="G66">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.25">
+      <c r="A67" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>11000</v>
+      </c>
+      <c r="F67">
+        <v>1760</v>
+      </c>
+      <c r="G67">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.25">
+      <c r="A68" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>21000</v>
+      </c>
+      <c r="G68">
+        <v>760</v>
+      </c>
+      <c r="H68">
+        <v>135</v>
+      </c>
+      <c r="J68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="10:10">
-      <c r="J43" t="s">
+    <row r="69" spans="1:10" ht="14.25">
+      <c r="A69" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>22050</v>
+      </c>
+      <c r="G69">
+        <v>798</v>
+      </c>
+      <c r="H69">
+        <v>142</v>
+      </c>
+      <c r="J69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="10:10">
-      <c r="J44" t="s">
+    <row r="70" spans="1:10" ht="14.25">
+      <c r="A70" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>23100</v>
+      </c>
+      <c r="G70">
+        <v>836</v>
+      </c>
+      <c r="H70">
+        <v>149</v>
+      </c>
+      <c r="J70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="10:10">
-      <c r="J45" t="s">
+    <row r="71" spans="1:10" ht="14.25">
+      <c r="A71" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>21000</v>
+      </c>
+      <c r="G71">
+        <v>760</v>
+      </c>
+      <c r="H71">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25">
+      <c r="A72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>22050</v>
+      </c>
+      <c r="G72">
+        <v>798</v>
+      </c>
+      <c r="H72">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25">
+      <c r="A73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>23100</v>
+      </c>
+      <c r="G73">
+        <v>836</v>
+      </c>
+      <c r="H73">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.25">
+      <c r="A74" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>56000</v>
+      </c>
+      <c r="D74">
+        <v>12050</v>
+      </c>
+      <c r="E74">
+        <v>2100</v>
+      </c>
+      <c r="F74">
+        <v>450</v>
+      </c>
+      <c r="J74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25">
+      <c r="A75" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>58800</v>
+      </c>
+      <c r="D75">
+        <v>12653</v>
+      </c>
+      <c r="E75">
+        <v>2205</v>
+      </c>
+      <c r="F75">
+        <v>473</v>
+      </c>
+      <c r="J75" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="10:10">
-      <c r="J46" t="s">
+    <row r="76" spans="1:10" ht="14.25">
+      <c r="A76" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>61600</v>
+      </c>
+      <c r="D76">
+        <v>13255</v>
+      </c>
+      <c r="E76">
+        <v>23100</v>
+      </c>
+      <c r="F76">
+        <v>495</v>
+      </c>
+      <c r="J76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="10:10">
-      <c r="J47" t="s">
+    <row r="77" spans="1:10" ht="14.25">
+      <c r="A77" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>56000</v>
+      </c>
+      <c r="D77">
+        <v>12050</v>
+      </c>
+      <c r="E77">
+        <v>2100</v>
+      </c>
+      <c r="F77">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.25">
+      <c r="A78" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>58800</v>
+      </c>
+      <c r="D78">
+        <v>12653</v>
+      </c>
+      <c r="E78">
+        <v>2205</v>
+      </c>
+      <c r="F78">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.25">
+      <c r="A79" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>61600</v>
+      </c>
+      <c r="D79">
+        <v>13255</v>
+      </c>
+      <c r="E79">
+        <v>23100</v>
+      </c>
+      <c r="F79">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.25">
+      <c r="A80" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>12000</v>
+      </c>
+      <c r="H80">
+        <v>450</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="10:10">
-      <c r="J48" t="s">
+    <row r="81" spans="1:10" ht="14.25">
+      <c r="A81" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>12600</v>
+      </c>
+      <c r="H81">
+        <v>473</v>
+      </c>
+      <c r="I81">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="10:10">
-      <c r="J49" t="s">
+    <row r="82" spans="1:10" ht="14.25">
+      <c r="A82" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>13200</v>
+      </c>
+      <c r="H82">
+        <v>495</v>
+      </c>
+      <c r="I82">
+        <v>110</v>
+      </c>
+      <c r="J82" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="10:10">
-      <c r="J50" t="s">
+    <row r="83" spans="1:10" ht="14.25">
+      <c r="A83" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>12000</v>
+      </c>
+      <c r="H83">
+        <v>450</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14.25">
+      <c r="A84" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>12600</v>
+      </c>
+      <c r="H84">
+        <v>473</v>
+      </c>
+      <c r="I84">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14.25">
+      <c r="A85" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>13200</v>
+      </c>
+      <c r="H85">
+        <v>495</v>
+      </c>
+      <c r="I85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14.25">
+      <c r="A86" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>22000</v>
+      </c>
+      <c r="E86">
+        <v>2500</v>
+      </c>
+      <c r="I86">
+        <v>320</v>
+      </c>
+      <c r="J86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="10:10">
-      <c r="J51" t="s">
+    <row r="87" spans="1:10" ht="14.25">
+      <c r="A87" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>23100</v>
+      </c>
+      <c r="E87">
+        <v>2625</v>
+      </c>
+      <c r="I87">
+        <v>336</v>
+      </c>
+      <c r="J87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="10:10">
-      <c r="J52" t="s">
+    <row r="88" spans="1:10" ht="14.25">
+      <c r="A88" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+      <c r="C88">
+        <v>24200</v>
+      </c>
+      <c r="E88">
+        <v>2750</v>
+      </c>
+      <c r="I88">
+        <v>352</v>
+      </c>
+      <c r="J88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="10:10">
-      <c r="J53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10">
-      <c r="J56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="10:10">
-      <c r="J57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="10:10">
-      <c r="J58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="10:10">
-      <c r="J59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="10:10">
-      <c r="J60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="10:10">
-      <c r="J61" t="s">
-        <v>81</v>
+    <row r="89" spans="1:10" ht="14.25">
+      <c r="A89" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>22000</v>
+      </c>
+      <c r="E89">
+        <v>2500</v>
+      </c>
+      <c r="I89">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25">
+      <c r="A90" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>23100</v>
+      </c>
+      <c r="E90">
+        <v>2625</v>
+      </c>
+      <c r="I90">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14.25">
+      <c r="A91" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>24200</v>
+      </c>
+      <c r="E91">
+        <v>2750</v>
+      </c>
+      <c r="I91">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/化矿文档.xlsx
+++ b/化矿文档.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="T1科技" sheetId="1" r:id="rId1"/>
+    <sheet name="基础矿石" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -844,8 +844,8 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89:I91"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2281,7 +2281,7 @@
         <v>13255</v>
       </c>
       <c r="E76">
-        <v>23100</v>
+        <v>2310</v>
       </c>
       <c r="F76">
         <v>495</v>
@@ -2344,7 +2344,7 @@
         <v>13255</v>
       </c>
       <c r="E79">
-        <v>23100</v>
+        <v>2310</v>
       </c>
       <c r="F79">
         <v>495</v>

--- a/化矿文档.xlsx
+++ b/化矿文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>三钛合金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,147 +245,237 @@
     <t>Prime Arkonor (+10%)</t>
   </si>
   <si>
+    <t>银色奥贝尔石</t>
+  </si>
+  <si>
+    <t>金色奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度金色奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度银色奥贝尔石</t>
+  </si>
+  <si>
+    <t>Kernite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光水硼砂</t>
+  </si>
+  <si>
+    <t>灼热水硼砂</t>
+  </si>
+  <si>
+    <t>高密度灼热水硼砂</t>
+  </si>
+  <si>
+    <t>高密度水硼砂</t>
+  </si>
+  <si>
+    <t>高密度发光水硼砂</t>
+  </si>
+  <si>
+    <t>纯杰斯贝矿</t>
+  </si>
+  <si>
+    <t>朴质杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度朴质杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度纯杰斯贝矿</t>
+  </si>
+  <si>
+    <t>多色希莫非特</t>
+  </si>
+  <si>
+    <t>辐射希莫非特</t>
+  </si>
+  <si>
+    <t>高密度希莫非特</t>
+  </si>
+  <si>
+    <t>高密度辐射希莫非特</t>
+  </si>
+  <si>
+    <t>高密度多色希莫非特</t>
+  </si>
+  <si>
+    <t>Glazed Hedbergite (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedbergite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃状同位原矿</t>
+  </si>
+  <si>
+    <t>光面同位原矿</t>
+  </si>
+  <si>
+    <t>高密度光面同位原矿</t>
+  </si>
+  <si>
+    <t>高密度同位原矿</t>
+  </si>
+  <si>
+    <t>高密度玻璃状同位原矿</t>
+  </si>
+  <si>
+    <t>Vitric Hedbergite (+5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色片麻岩</t>
+  </si>
+  <si>
+    <t>棱柱片麻岩</t>
+  </si>
+  <si>
+    <t>高密度片麻岩</t>
+  </si>
+  <si>
+    <t>高密度彩色片麻岩</t>
+  </si>
+  <si>
+    <t>高密度棱柱片麻岩</t>
+  </si>
+  <si>
+    <t>条纹赭</t>
+  </si>
+  <si>
+    <t>黑曜赭石</t>
+  </si>
+  <si>
+    <t>高密度黑赭石</t>
+  </si>
+  <si>
+    <t>高密度黑曜赭石</t>
+  </si>
+  <si>
+    <t>高密度条纹赭</t>
+  </si>
+  <si>
+    <t>斜克洛基石</t>
+  </si>
+  <si>
+    <t>克洛基水晶</t>
+  </si>
+  <si>
+    <t>高密度克洛基石</t>
+  </si>
+  <si>
+    <t>高密度克洛基水晶</t>
+  </si>
+  <si>
+    <t>高密度斜克洛基石</t>
+  </si>
+  <si>
+    <t>Spodumain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮灰岩</t>
+  </si>
+  <si>
+    <t>发光灰岩</t>
+  </si>
+  <si>
+    <t>高密度亮灰岩</t>
+  </si>
+  <si>
+    <t>高密度发光灰岩</t>
+  </si>
+  <si>
+    <t>高密度灰岩</t>
+  </si>
+  <si>
+    <t>三晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>单晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>高密度双多特石</t>
+  </si>
+  <si>
+    <t>高密度单晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>高密度三晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>红色艾克诺岩</t>
+  </si>
+  <si>
+    <t>艾克诺精华岩</t>
+  </si>
+  <si>
+    <t>高密度艾克诺岩</t>
+  </si>
+  <si>
+    <t>高密度红色艾克诺岩</t>
+  </si>
+  <si>
+    <t>高密度艾克诺精华岩</t>
+  </si>
+  <si>
+    <t>富柯石英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富沥青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯石英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奥贝尔石</t>
-  </si>
-  <si>
-    <t>银色奥贝尔石</t>
-  </si>
-  <si>
-    <t>金色奥贝尔石</t>
-  </si>
-  <si>
-    <t>高密度金色奥贝尔石</t>
-  </si>
-  <si>
-    <t>高密度奥贝尔石</t>
-  </si>
-  <si>
-    <t>高密度银色奥贝尔石</t>
-  </si>
-  <si>
-    <t>Kernite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水硼砂</t>
-  </si>
-  <si>
-    <t>发光水硼砂</t>
-  </si>
-  <si>
-    <t>灼热水硼砂</t>
-  </si>
-  <si>
-    <t>高密度灼热水硼砂</t>
-  </si>
-  <si>
-    <t>高密度水硼砂</t>
-  </si>
-  <si>
-    <t>高密度发光水硼砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杰斯贝矿</t>
-  </si>
-  <si>
-    <t>纯杰斯贝矿</t>
-  </si>
-  <si>
-    <t>朴质杰斯贝矿</t>
-  </si>
-  <si>
-    <t>高密度杰斯贝矿</t>
-  </si>
-  <si>
-    <t>高密度朴质杰斯贝矿</t>
-  </si>
-  <si>
-    <t>高密度纯杰斯贝矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>希莫非特</t>
-  </si>
-  <si>
-    <t>多色希莫非特</t>
-  </si>
-  <si>
-    <t>辐射希莫非特</t>
-  </si>
-  <si>
-    <t>高密度希莫非特</t>
-  </si>
-  <si>
-    <t>高密度辐射希莫非特</t>
-  </si>
-  <si>
-    <t>高密度多色希莫非特</t>
-  </si>
-  <si>
-    <t>Glazed Hedbergite (+10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hedbergite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同位原矿</t>
-  </si>
-  <si>
-    <t>玻璃状同位原矿</t>
-  </si>
-  <si>
-    <t>光面同位原矿</t>
-  </si>
-  <si>
-    <t>高密度光面同位原矿</t>
-  </si>
-  <si>
-    <t>高密度同位原矿</t>
-  </si>
-  <si>
-    <t>高密度玻璃状同位原矿</t>
-  </si>
-  <si>
-    <t>Vitric Hedbergite (+5%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gneiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>片麻岩</t>
-  </si>
-  <si>
-    <t>彩色片麻岩</t>
-  </si>
-  <si>
-    <t>棱柱片麻岩</t>
-  </si>
-  <si>
-    <t>高密度片麻岩</t>
-  </si>
-  <si>
-    <t>高密度彩色片麻岩</t>
-  </si>
-  <si>
-    <t>高密度棱柱片麻岩</t>
-  </si>
-  <si>
-    <t>条纹赭</t>
-  </si>
-  <si>
-    <t>黑曜赭石</t>
-  </si>
-  <si>
-    <t>高密度黑赭石</t>
-  </si>
-  <si>
-    <t>高密度黑曜赭石</t>
-  </si>
-  <si>
-    <t>高密度条纹赭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑赭石</t>
@@ -393,79 +483,19 @@
   </si>
   <si>
     <t>克洛基石</t>
-  </si>
-  <si>
-    <t>斜克洛基石</t>
-  </si>
-  <si>
-    <t>克洛基水晶</t>
-  </si>
-  <si>
-    <t>高密度克洛基石</t>
-  </si>
-  <si>
-    <t>高密度克洛基水晶</t>
-  </si>
-  <si>
-    <t>高密度斜克洛基石</t>
-  </si>
-  <si>
-    <t>Spodumain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灰岩</t>
-  </si>
-  <si>
-    <t>亮灰岩</t>
-  </si>
-  <si>
-    <t>发光灰岩</t>
-  </si>
-  <si>
-    <t>高密度亮灰岩</t>
-  </si>
-  <si>
-    <t>高密度发光灰岩</t>
-  </si>
-  <si>
-    <t>高密度灰岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双多特石</t>
-  </si>
-  <si>
-    <t>三晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>单晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>高密度双多特石</t>
-  </si>
-  <si>
-    <t>高密度单晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>高密度三晶双多特斜岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>艾克诺岩</t>
-  </si>
-  <si>
-    <t>红色艾克诺岩</t>
-  </si>
-  <si>
-    <t>艾克诺精华岩</t>
-  </si>
-  <si>
-    <t>高密度艾克诺岩</t>
-  </si>
-  <si>
-    <t>高密度红色艾克诺岩</t>
-  </si>
-  <si>
-    <t>高密度艾克诺精华岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,7 +551,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -535,6 +565,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -841,11 +872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,9 +886,10 @@
     <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -886,10 +918,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -899,11 +934,14 @@
       <c r="C2">
         <v>415</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -913,11 +951,14 @@
       <c r="C3">
         <v>436</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -927,11 +968,14 @@
       <c r="C4">
         <v>457</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -942,7 +986,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -953,7 +997,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -964,7 +1008,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -977,11 +1021,14 @@
       <c r="D8">
         <v>173</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>0.15</v>
+      </c>
+      <c r="K8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -994,11 +1041,14 @@
       <c r="D9">
         <v>182</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>0.15</v>
+      </c>
+      <c r="K9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1011,11 +1061,14 @@
       <c r="D10">
         <v>190</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>0.15</v>
+      </c>
+      <c r="K10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1082,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1096,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1057,7 +1110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1076,11 +1129,14 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1099,11 +1155,14 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1122,11 +1181,14 @@
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1146,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1202,11 +1264,14 @@
       <c r="E20">
         <v>107</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20">
+        <v>0.35</v>
+      </c>
+      <c r="K20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1222,11 +1287,14 @@
       <c r="E21">
         <v>113</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21">
+        <v>0.35</v>
+      </c>
+      <c r="K21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1242,11 +1310,14 @@
       <c r="E22">
         <v>118</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22">
+        <v>0.35</v>
+      </c>
+      <c r="K22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1297,9 +1368,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
+    <row r="26" spans="1:11" ht="14.25">
+      <c r="A26" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1313,13 +1384,16 @@
       <c r="F26">
         <v>85</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26">
+        <v>0.6</v>
+      </c>
+      <c r="K26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25">
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1333,13 +1407,16 @@
       <c r="F27">
         <v>90</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27">
+        <v>0.6</v>
+      </c>
+      <c r="K27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25">
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -1353,13 +1430,16 @@
       <c r="F28">
         <v>94</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28">
+        <v>0.6</v>
+      </c>
+      <c r="K28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.25">
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1374,9 +1454,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25">
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1391,9 +1471,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.25">
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1408,9 +1488,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.25">
-      <c r="A32" s="3" t="s">
-        <v>80</v>
+    <row r="32" spans="1:11" ht="14.25">
+      <c r="A32" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -1424,13 +1504,16 @@
       <c r="F32">
         <v>134</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32">
+        <v>1.2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25">
+      <c r="A33" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25">
-      <c r="A33" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -1444,13 +1527,16 @@
       <c r="F33">
         <v>141</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33">
+        <v>1.2</v>
+      </c>
+      <c r="K33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25">
+    <row r="34" spans="1:11" ht="14.25">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -1464,13 +1550,16 @@
       <c r="F34">
         <v>148</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34">
+        <v>1.2</v>
+      </c>
+      <c r="K34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25">
+    <row r="35" spans="1:11" ht="14.25">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1485,9 +1574,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25">
+    <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1502,9 +1591,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:11" ht="14.25">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1519,9 +1608,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25">
-      <c r="A38" s="4" t="s">
-        <v>86</v>
+    <row r="38" spans="1:11" ht="14.25">
+      <c r="A38" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -1535,13 +1624,16 @@
       <c r="H38">
         <v>8</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25">
+    <row r="39" spans="1:11" ht="14.25">
       <c r="A39" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -1555,13 +1647,16 @@
       <c r="H39">
         <v>8</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.25">
+    <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -1575,13 +1670,16 @@
       <c r="H40">
         <v>9</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.25">
+    <row r="41" spans="1:11" ht="14.25">
       <c r="A41" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1596,9 +1694,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.25">
+    <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1613,9 +1711,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25">
+    <row r="43" spans="1:11" ht="14.25">
       <c r="A43" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1630,9 +1728,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.25">
-      <c r="A44" s="5" t="s">
-        <v>92</v>
+    <row r="44" spans="1:11" ht="14.25">
+      <c r="A44" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -1649,13 +1747,16 @@
       <c r="H44">
         <v>15</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.25">
+    <row r="45" spans="1:11" ht="14.25">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>100</v>
@@ -1672,13 +1773,16 @@
       <c r="H45">
         <v>16</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25">
+    <row r="46" spans="1:11" ht="14.25">
       <c r="A46" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>100</v>
@@ -1695,13 +1799,16 @@
       <c r="H46">
         <v>17</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25">
+    <row r="47" spans="1:11" ht="14.25">
       <c r="A47" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1719,9 +1826,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.25">
+    <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1739,9 +1846,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25">
+    <row r="49" spans="1:11" ht="14.25">
       <c r="A49" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1759,9 +1866,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.25">
-      <c r="A50" s="6" t="s">
-        <v>100</v>
+    <row r="50" spans="1:11" ht="14.25">
+      <c r="A50" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B50">
         <v>100</v>
@@ -1778,13 +1885,16 @@
       <c r="H50">
         <v>19</v>
       </c>
-      <c r="J50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.25">
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25">
       <c r="A51" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B51">
         <v>100</v>
@@ -1801,13 +1911,16 @@
       <c r="H51">
         <v>20</v>
       </c>
-      <c r="J51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.25">
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.25">
       <c r="A52" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -1824,13 +1937,16 @@
       <c r="H52">
         <v>21</v>
       </c>
-      <c r="J52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.25">
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.25">
       <c r="A53" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1848,9 +1964,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25">
+    <row r="54" spans="1:11" ht="14.25">
       <c r="A54" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1868,9 +1984,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.25">
+    <row r="55" spans="1:11" ht="14.25">
       <c r="A55" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1888,9 +2004,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.25">
-      <c r="A56" s="7" t="s">
-        <v>108</v>
+    <row r="56" spans="1:11" ht="14.25">
+      <c r="A56" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B56">
         <v>100</v>
@@ -1904,13 +2020,16 @@
       <c r="F56">
         <v>300</v>
       </c>
-      <c r="J56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.25">
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B57">
         <v>100</v>
@@ -1924,13 +2043,16 @@
       <c r="F57">
         <v>315</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.25">
+    <row r="58" spans="1:11" ht="14.25">
       <c r="A58" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B58">
         <v>100</v>
@@ -1944,13 +2066,16 @@
       <c r="F58">
         <v>330</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.25">
+    <row r="59" spans="1:11" ht="14.25">
       <c r="A59" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1965,9 +2090,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.25">
+    <row r="60" spans="1:11" ht="14.25">
       <c r="A60" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1982,9 +2107,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.25">
+    <row r="61" spans="1:11" ht="14.25">
       <c r="A61" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1999,9 +2124,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.25">
+    <row r="62" spans="1:11" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B62">
         <v>100</v>
@@ -2015,13 +2140,16 @@
       <c r="G62">
         <v>120</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.25">
+    <row r="63" spans="1:11" ht="14.25">
       <c r="A63" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B63">
         <v>100</v>
@@ -2035,13 +2163,16 @@
       <c r="G63">
         <v>126</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.25">
+    <row r="64" spans="1:11" ht="14.25">
       <c r="A64" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B64">
         <v>100</v>
@@ -2055,13 +2186,16 @@
       <c r="G64">
         <v>132</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.25">
+    <row r="65" spans="1:11" ht="14.25">
       <c r="A65" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2076,9 +2210,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.25">
+    <row r="66" spans="1:11" ht="14.25">
       <c r="A66" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2093,9 +2227,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.25">
+    <row r="67" spans="1:11" ht="14.25">
       <c r="A67" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2110,9 +2244,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.25">
-      <c r="A68" s="9" t="s">
-        <v>120</v>
+    <row r="68" spans="1:11" ht="14.25">
+      <c r="A68" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B68">
         <v>100</v>
@@ -2126,13 +2260,16 @@
       <c r="H68">
         <v>135</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68">
+        <v>16</v>
+      </c>
+      <c r="K68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.25">
+    <row r="69" spans="1:11" ht="14.25">
       <c r="A69" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B69">
         <v>100</v>
@@ -2146,13 +2283,16 @@
       <c r="H69">
         <v>142</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.25">
+    <row r="70" spans="1:11" ht="14.25">
       <c r="A70" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B70">
         <v>100</v>
@@ -2166,13 +2306,16 @@
       <c r="H70">
         <v>149</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.25">
+    <row r="71" spans="1:11" ht="14.25">
       <c r="A71" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2187,9 +2330,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.25">
+    <row r="72" spans="1:11" ht="14.25">
       <c r="A72" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2204,9 +2347,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.25">
+    <row r="73" spans="1:11" ht="14.25">
       <c r="A73" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2221,9 +2364,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.25">
-      <c r="A74" s="10" t="s">
-        <v>127</v>
+    <row r="74" spans="1:11" ht="14.25">
+      <c r="A74" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B74">
         <v>100</v>
@@ -2240,13 +2383,16 @@
       <c r="F74">
         <v>450</v>
       </c>
-      <c r="J74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.25">
+      <c r="J74">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.25">
       <c r="A75" s="10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B75">
         <v>100</v>
@@ -2263,13 +2409,16 @@
       <c r="F75">
         <v>473</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14.25">
+    <row r="76" spans="1:11" ht="14.25">
       <c r="A76" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B76">
         <v>100</v>
@@ -2286,13 +2435,16 @@
       <c r="F76">
         <v>495</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14.25">
+    <row r="77" spans="1:11" ht="14.25">
       <c r="A77" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2310,9 +2462,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.25">
+    <row r="78" spans="1:11" ht="14.25">
       <c r="A78" s="10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2330,9 +2482,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14.25">
+    <row r="79" spans="1:11" ht="14.25">
       <c r="A79" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2350,9 +2502,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.25">
-      <c r="A80" s="11" t="s">
-        <v>133</v>
+    <row r="80" spans="1:11" ht="14.25">
+      <c r="A80" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B80">
         <v>100</v>
@@ -2366,13 +2518,16 @@
       <c r="I80">
         <v>100</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80">
+        <v>16</v>
+      </c>
+      <c r="K80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.25">
+    <row r="81" spans="1:11" ht="14.25">
       <c r="A81" s="11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B81">
         <v>100</v>
@@ -2386,13 +2541,16 @@
       <c r="I81">
         <v>105</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.25">
+    <row r="82" spans="1:11" ht="14.25">
       <c r="A82" s="11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B82">
         <v>100</v>
@@ -2406,13 +2564,16 @@
       <c r="I82">
         <v>110</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.25">
+    <row r="83" spans="1:11" ht="14.25">
       <c r="A83" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2427,9 +2588,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.25">
+    <row r="84" spans="1:11" ht="14.25">
       <c r="A84" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2444,9 +2605,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.25">
+    <row r="85" spans="1:11" ht="14.25">
       <c r="A85" s="11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2461,9 +2622,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.25">
-      <c r="A86" s="12" t="s">
-        <v>139</v>
+    <row r="86" spans="1:11" ht="14.25">
+      <c r="A86" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -2477,13 +2638,16 @@
       <c r="I86">
         <v>320</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86">
+        <v>16</v>
+      </c>
+      <c r="K86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.25">
+    <row r="87" spans="1:11" ht="14.25">
       <c r="A87" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B87">
         <v>100</v>
@@ -2497,13 +2661,16 @@
       <c r="I87">
         <v>336</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.25">
+    <row r="88" spans="1:11" ht="14.25">
       <c r="A88" s="12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -2517,13 +2684,16 @@
       <c r="I88">
         <v>352</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.25">
+    <row r="89" spans="1:11" ht="14.25">
       <c r="A89" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2538,9 +2708,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.25">
+    <row r="90" spans="1:11" ht="14.25">
       <c r="A90" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2555,9 +2725,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.25">
+    <row r="91" spans="1:11" ht="14.25">
       <c r="A91" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2571,6 +2741,101 @@
       <c r="I91">
         <v>352</v>
       </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.25">
+      <c r="A92" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>2000</v>
+      </c>
+      <c r="E92">
+        <v>400</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.25">
+      <c r="A93" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <v>2300</v>
+      </c>
+      <c r="E93">
+        <v>460</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.25">
+      <c r="A94" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>6000</v>
+      </c>
+      <c r="E94">
+        <v>400</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.25">
+      <c r="A95" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <v>6900</v>
+      </c>
+      <c r="E95">
+        <v>460</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.25">
+      <c r="A96" s="12"/>
+    </row>
+    <row r="97" spans="1:1" ht="14.25">
+      <c r="A97" s="12"/>
+    </row>
+    <row r="98" spans="1:1" ht="14.25">
+      <c r="A98" s="12"/>
+    </row>
+    <row r="99" spans="1:1" ht="14.25">
+      <c r="A99" s="12"/>
+    </row>
+    <row r="100" spans="1:1" ht="14.25">
+      <c r="A100" s="12"/>
+    </row>
+    <row r="101" spans="1:1" ht="14.25">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:1" ht="14.25">
+      <c r="A102" s="12"/>
+    </row>
+    <row r="103" spans="1:1" ht="14.25">
+      <c r="A103" s="12"/>
+    </row>
+    <row r="104" spans="1:1" ht="14.25">
+      <c r="A104" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/化矿文档.xlsx
+++ b/化矿文档.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基础矿石" sheetId="1" r:id="rId1"/>
+    <sheet name="冰矿" sheetId="2" r:id="rId2"/>
+    <sheet name="卫星矿" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="230">
   <si>
     <t>三钛合金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,462 +42,710 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>产物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡晶石</t>
+  </si>
+  <si>
+    <t>斜长岩</t>
+  </si>
+  <si>
+    <t>干焦岩</t>
+  </si>
+  <si>
+    <t>灼烧岩</t>
+  </si>
+  <si>
+    <t>蓝色斜长岩</t>
+  </si>
+  <si>
+    <t>富斜长岩</t>
+  </si>
+  <si>
+    <t>固体干焦岩</t>
+  </si>
+  <si>
+    <t>流体干焦岩</t>
+  </si>
+  <si>
+    <t>浓缩灼烧岩</t>
+  </si>
+  <si>
+    <t>厚灼烧岩</t>
+  </si>
+  <si>
+    <t>富凡晶石</t>
+  </si>
+  <si>
+    <t>厚质凡晶石</t>
+  </si>
+  <si>
+    <t>高密度蓝色斜长岩</t>
+  </si>
+  <si>
+    <t>高密度斜长岩</t>
+  </si>
+  <si>
+    <t>高密度富斜长岩</t>
+  </si>
+  <si>
+    <t>高密度干焦岩</t>
+  </si>
+  <si>
+    <t>高密度固体干焦岩</t>
+  </si>
+  <si>
+    <t>高密度流体干焦岩</t>
+  </si>
+  <si>
+    <t>高密度浓缩灼烧岩</t>
+  </si>
+  <si>
+    <t>高密度厚灼烧岩</t>
+  </si>
+  <si>
+    <t>高密度灼烧岩</t>
+  </si>
+  <si>
+    <t>高密度富凡晶石</t>
+  </si>
+  <si>
+    <t>高密度厚质凡晶石</t>
+  </si>
+  <si>
+    <t>高密度凡晶石</t>
+  </si>
+  <si>
+    <t>Veldspar</t>
+  </si>
+  <si>
+    <t>Concentrated Veldspar (+5%)</t>
+  </si>
+  <si>
+    <t>Dense Veldspar (+10%)</t>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scordite</t>
+  </si>
+  <si>
+    <t>Condensed Scordite (+5%)</t>
+  </si>
+  <si>
+    <t>Massive Scordite (+10%)</t>
+  </si>
+  <si>
+    <t>Pyroxeres</t>
+  </si>
+  <si>
+    <t>Solid Pyroxeres (+5%)</t>
+  </si>
+  <si>
+    <t>Viscous Pyroxeres (+10%)</t>
+  </si>
+  <si>
+    <t>Plagioclase</t>
+  </si>
+  <si>
+    <t>Azure Plagioclase (+5%)</t>
+  </si>
+  <si>
+    <t>Rich Plagioclase (+10%)</t>
+  </si>
+  <si>
+    <t>Omber</t>
+  </si>
+  <si>
+    <t>Silvery Omber (+5%)</t>
+  </si>
+  <si>
+    <t>Golden Omber (+10%)</t>
+  </si>
+  <si>
+    <t>Luminous Kernite (+5%)</t>
+  </si>
+  <si>
+    <t>Fiery Kernite (+10%)</t>
+  </si>
+  <si>
+    <t>Jaspet</t>
+  </si>
+  <si>
+    <t>Pure Jaspet (+5%)</t>
+  </si>
+  <si>
+    <t>Pristine Jaspet (+10%)</t>
+  </si>
+  <si>
+    <t>Hemorphite</t>
+  </si>
+  <si>
+    <t>Vivid Hemorphite (+5%)</t>
+  </si>
+  <si>
+    <t>Radiant Hemorphite (+10%)</t>
+  </si>
+  <si>
+    <t>Iridescent Gneiss (+5%)</t>
+  </si>
+  <si>
+    <t>Prismatic Gneiss (+10%)</t>
+  </si>
+  <si>
+    <t>Dark Ochre</t>
+  </si>
+  <si>
+    <t>Onyx Ochre (+5%)</t>
+  </si>
+  <si>
+    <t>Obsidian Ochre (+10%)</t>
+  </si>
+  <si>
+    <t>Crokite</t>
+  </si>
+  <si>
+    <t>Sharp Crokite (+5%)</t>
+  </si>
+  <si>
+    <t>Crystalline Crokite (+10%)</t>
+  </si>
+  <si>
+    <t>Bright Spodumain (+5%)</t>
+  </si>
+  <si>
+    <t>Gleaming Spodumain (+10%)</t>
+  </si>
+  <si>
+    <t>Bistot</t>
+  </si>
+  <si>
+    <t>Triclinic Bistot (+5%)</t>
+  </si>
+  <si>
+    <t>Monoclinic Bistot (+10%)</t>
+  </si>
+  <si>
+    <t>Arkanor</t>
+  </si>
+  <si>
+    <t>Crimson Arkonor (+5%)</t>
+  </si>
+  <si>
+    <t>Prime Arkonor (+10%)</t>
+  </si>
+  <si>
+    <t>银色奥贝尔石</t>
+  </si>
+  <si>
+    <t>金色奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度金色奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度奥贝尔石</t>
+  </si>
+  <si>
+    <t>高密度银色奥贝尔石</t>
+  </si>
+  <si>
+    <t>Kernite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光水硼砂</t>
+  </si>
+  <si>
+    <t>灼热水硼砂</t>
+  </si>
+  <si>
+    <t>高密度灼热水硼砂</t>
+  </si>
+  <si>
+    <t>高密度水硼砂</t>
+  </si>
+  <si>
+    <t>高密度发光水硼砂</t>
+  </si>
+  <si>
+    <t>纯杰斯贝矿</t>
+  </si>
+  <si>
+    <t>朴质杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度朴质杰斯贝矿</t>
+  </si>
+  <si>
+    <t>高密度纯杰斯贝矿</t>
+  </si>
+  <si>
+    <t>多色希莫非特</t>
+  </si>
+  <si>
+    <t>辐射希莫非特</t>
+  </si>
+  <si>
+    <t>高密度希莫非特</t>
+  </si>
+  <si>
+    <t>高密度辐射希莫非特</t>
+  </si>
+  <si>
+    <t>高密度多色希莫非特</t>
+  </si>
+  <si>
+    <t>Glazed Hedbergite (+10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedbergite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃状同位原矿</t>
+  </si>
+  <si>
+    <t>光面同位原矿</t>
+  </si>
+  <si>
+    <t>高密度光面同位原矿</t>
+  </si>
+  <si>
+    <t>高密度同位原矿</t>
+  </si>
+  <si>
+    <t>高密度玻璃状同位原矿</t>
+  </si>
+  <si>
+    <t>Vitric Hedbergite (+5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色片麻岩</t>
+  </si>
+  <si>
+    <t>棱柱片麻岩</t>
+  </si>
+  <si>
+    <t>高密度片麻岩</t>
+  </si>
+  <si>
+    <t>高密度彩色片麻岩</t>
+  </si>
+  <si>
+    <t>高密度棱柱片麻岩</t>
+  </si>
+  <si>
+    <t>条纹赭</t>
+  </si>
+  <si>
+    <t>黑曜赭石</t>
+  </si>
+  <si>
+    <t>高密度黑赭石</t>
+  </si>
+  <si>
+    <t>高密度黑曜赭石</t>
+  </si>
+  <si>
+    <t>高密度条纹赭</t>
+  </si>
+  <si>
+    <t>斜克洛基石</t>
+  </si>
+  <si>
+    <t>克洛基水晶</t>
+  </si>
+  <si>
+    <t>高密度克洛基石</t>
+  </si>
+  <si>
+    <t>高密度克洛基水晶</t>
+  </si>
+  <si>
+    <t>高密度斜克洛基石</t>
+  </si>
+  <si>
+    <t>Spodumain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮灰岩</t>
+  </si>
+  <si>
+    <t>发光灰岩</t>
+  </si>
+  <si>
+    <t>高密度亮灰岩</t>
+  </si>
+  <si>
+    <t>高密度发光灰岩</t>
+  </si>
+  <si>
+    <t>高密度灰岩</t>
+  </si>
+  <si>
+    <t>三晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>单晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>高密度双多特石</t>
+  </si>
+  <si>
+    <t>高密度单晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>高密度三晶双多特斜岩</t>
+  </si>
+  <si>
+    <t>红色艾克诺岩</t>
+  </si>
+  <si>
+    <t>艾克诺精华岩</t>
+  </si>
+  <si>
+    <t>高密度艾克诺岩</t>
+  </si>
+  <si>
+    <t>高密度红色艾克诺岩</t>
+  </si>
+  <si>
+    <t>高密度艾克诺精华岩</t>
+  </si>
+  <si>
+    <t>体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥贝尔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水硼砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰斯贝矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希莫非特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同位原矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片麻岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑赭石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克洛基石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双多特石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾克诺岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>超噬矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凡晶石</t>
-  </si>
-  <si>
-    <t>斜长岩</t>
-  </si>
-  <si>
-    <t>干焦岩</t>
-  </si>
-  <si>
-    <t>灼烧岩</t>
-  </si>
-  <si>
-    <t>蓝色斜长岩</t>
-  </si>
-  <si>
-    <t>富斜长岩</t>
-  </si>
-  <si>
-    <t>固体干焦岩</t>
-  </si>
-  <si>
-    <t>流体干焦岩</t>
-  </si>
-  <si>
-    <t>浓缩灼烧岩</t>
-  </si>
-  <si>
-    <t>厚灼烧岩</t>
-  </si>
-  <si>
-    <t>富凡晶石</t>
-  </si>
-  <si>
-    <t>厚质凡晶石</t>
-  </si>
-  <si>
-    <t>高密度蓝色斜长岩</t>
-  </si>
-  <si>
-    <t>高密度斜长岩</t>
-  </si>
-  <si>
-    <t>高密度富斜长岩</t>
-  </si>
-  <si>
-    <t>高密度干焦岩</t>
-  </si>
-  <si>
-    <t>高密度固体干焦岩</t>
-  </si>
-  <si>
-    <t>高密度流体干焦岩</t>
-  </si>
-  <si>
-    <t>高密度浓缩灼烧岩</t>
-  </si>
-  <si>
-    <t>高密度厚灼烧岩</t>
-  </si>
-  <si>
-    <t>高密度灼烧岩</t>
-  </si>
-  <si>
-    <t>高密度富凡晶石</t>
-  </si>
-  <si>
-    <t>高密度厚质凡晶石</t>
-  </si>
-  <si>
-    <t>高密度凡晶石</t>
-  </si>
-  <si>
-    <t>Veldspar</t>
-  </si>
-  <si>
-    <t>Concentrated Veldspar (+5%)</t>
-  </si>
-  <si>
-    <t>Dense Veldspar (+10%)</t>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scordite</t>
-  </si>
-  <si>
-    <t>Condensed Scordite (+5%)</t>
-  </si>
-  <si>
-    <t>Massive Scordite (+10%)</t>
-  </si>
-  <si>
-    <t>Pyroxeres</t>
-  </si>
-  <si>
-    <t>Solid Pyroxeres (+5%)</t>
-  </si>
-  <si>
-    <t>Viscous Pyroxeres (+10%)</t>
-  </si>
-  <si>
-    <t>Plagioclase</t>
-  </si>
-  <si>
-    <t>Azure Plagioclase (+5%)</t>
-  </si>
-  <si>
-    <t>Rich Plagioclase (+10%)</t>
-  </si>
-  <si>
-    <t>Omber</t>
-  </si>
-  <si>
-    <t>Silvery Omber (+5%)</t>
-  </si>
-  <si>
-    <t>Golden Omber (+10%)</t>
-  </si>
-  <si>
-    <t>Luminous Kernite (+5%)</t>
-  </si>
-  <si>
-    <t>Fiery Kernite (+10%)</t>
-  </si>
-  <si>
-    <t>Jaspet</t>
-  </si>
-  <si>
-    <t>Pure Jaspet (+5%)</t>
-  </si>
-  <si>
-    <t>Pristine Jaspet (+10%)</t>
-  </si>
-  <si>
-    <t>Hemorphite</t>
-  </si>
-  <si>
-    <t>Vivid Hemorphite (+5%)</t>
-  </si>
-  <si>
-    <t>Radiant Hemorphite (+10%)</t>
-  </si>
-  <si>
-    <t>Iridescent Gneiss (+5%)</t>
-  </si>
-  <si>
-    <t>Prismatic Gneiss (+10%)</t>
-  </si>
-  <si>
-    <t>Dark Ochre</t>
-  </si>
-  <si>
-    <t>Onyx Ochre (+5%)</t>
-  </si>
-  <si>
-    <t>Obsidian Ochre (+10%)</t>
-  </si>
-  <si>
-    <t>Crokite</t>
-  </si>
-  <si>
-    <t>Sharp Crokite (+5%)</t>
-  </si>
-  <si>
-    <t>Crystalline Crokite (+10%)</t>
-  </si>
-  <si>
-    <t>Bright Spodumain (+5%)</t>
-  </si>
-  <si>
-    <t>Gleaming Spodumain (+10%)</t>
-  </si>
-  <si>
-    <t>Bistot</t>
-  </si>
-  <si>
-    <t>Triclinic Bistot (+5%)</t>
-  </si>
-  <si>
-    <t>Monoclinic Bistot (+10%)</t>
-  </si>
-  <si>
-    <t>Arkanor</t>
-  </si>
-  <si>
-    <t>Crimson Arkonor (+5%)</t>
-  </si>
-  <si>
-    <t>Prime Arkonor (+10%)</t>
-  </si>
-  <si>
-    <t>银色奥贝尔石</t>
-  </si>
-  <si>
-    <t>金色奥贝尔石</t>
-  </si>
-  <si>
-    <t>高密度金色奥贝尔石</t>
-  </si>
-  <si>
-    <t>高密度奥贝尔石</t>
-  </si>
-  <si>
-    <t>高密度银色奥贝尔石</t>
-  </si>
-  <si>
-    <t>Kernite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光水硼砂</t>
-  </si>
-  <si>
-    <t>灼热水硼砂</t>
-  </si>
-  <si>
-    <t>高密度灼热水硼砂</t>
-  </si>
-  <si>
-    <t>高密度水硼砂</t>
-  </si>
-  <si>
-    <t>高密度发光水硼砂</t>
-  </si>
-  <si>
-    <t>纯杰斯贝矿</t>
-  </si>
-  <si>
-    <t>朴质杰斯贝矿</t>
-  </si>
-  <si>
-    <t>高密度杰斯贝矿</t>
-  </si>
-  <si>
-    <t>高密度朴质杰斯贝矿</t>
-  </si>
-  <si>
-    <t>高密度纯杰斯贝矿</t>
-  </si>
-  <si>
-    <t>多色希莫非特</t>
-  </si>
-  <si>
-    <t>辐射希莫非特</t>
-  </si>
-  <si>
-    <t>高密度希莫非特</t>
-  </si>
-  <si>
-    <t>高密度辐射希莫非特</t>
-  </si>
-  <si>
-    <t>高密度多色希莫非特</t>
-  </si>
-  <si>
-    <t>Glazed Hedbergite (+10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hedbergite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃状同位原矿</t>
-  </si>
-  <si>
-    <t>光面同位原矿</t>
-  </si>
-  <si>
-    <t>高密度光面同位原矿</t>
-  </si>
-  <si>
-    <t>高密度同位原矿</t>
-  </si>
-  <si>
-    <t>高密度玻璃状同位原矿</t>
-  </si>
-  <si>
-    <t>Vitric Hedbergite (+5%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gneiss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩色片麻岩</t>
-  </si>
-  <si>
-    <t>棱柱片麻岩</t>
-  </si>
-  <si>
-    <t>高密度片麻岩</t>
-  </si>
-  <si>
-    <t>高密度彩色片麻岩</t>
-  </si>
-  <si>
-    <t>高密度棱柱片麻岩</t>
-  </si>
-  <si>
-    <t>条纹赭</t>
-  </si>
-  <si>
-    <t>黑曜赭石</t>
-  </si>
-  <si>
-    <t>高密度黑赭石</t>
-  </si>
-  <si>
-    <t>高密度黑曜赭石</t>
-  </si>
-  <si>
-    <t>高密度条纹赭</t>
-  </si>
-  <si>
-    <t>斜克洛基石</t>
-  </si>
-  <si>
-    <t>克洛基水晶</t>
-  </si>
-  <si>
-    <t>高密度克洛基石</t>
-  </si>
-  <si>
-    <t>高密度克洛基水晶</t>
-  </si>
-  <si>
-    <t>高密度斜克洛基石</t>
-  </si>
-  <si>
-    <t>Spodumain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮灰岩</t>
-  </si>
-  <si>
-    <t>发光灰岩</t>
-  </si>
-  <si>
-    <t>高密度亮灰岩</t>
-  </si>
-  <si>
-    <t>高密度发光灰岩</t>
-  </si>
-  <si>
-    <t>高密度灰岩</t>
-  </si>
-  <si>
-    <t>三晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>单晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>高密度双多特石</t>
-  </si>
-  <si>
-    <t>高密度单晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>高密度三晶双多特斜岩</t>
-  </si>
-  <si>
-    <t>红色艾克诺岩</t>
-  </si>
-  <si>
-    <t>艾克诺精华岩</t>
-  </si>
-  <si>
-    <t>高密度艾克诺岩</t>
-  </si>
-  <si>
-    <t>高密度红色艾克诺岩</t>
-  </si>
-  <si>
-    <t>高密度艾克诺精华岩</t>
+    <t>白釉冰</t>
+  </si>
+  <si>
+    <t>冰晶矿</t>
+  </si>
+  <si>
+    <t>粗蓝冰</t>
+  </si>
+  <si>
+    <t>电冰体</t>
+  </si>
+  <si>
+    <t>富清冰</t>
+  </si>
+  <si>
+    <t>光滑聚合冰</t>
+  </si>
+  <si>
+    <t>黑闪冰</t>
+  </si>
+  <si>
+    <t>加里多斯冰矿</t>
+  </si>
+  <si>
+    <t>聚合冰体</t>
+  </si>
+  <si>
+    <t>蓝冰矿</t>
+  </si>
+  <si>
+    <t>朴白釉冰</t>
+  </si>
+  <si>
+    <t>清冰锥</t>
+  </si>
+  <si>
+    <t>重水 (69个单位)</t>
+  </si>
+  <si>
+    <t>液化臭氧 (35个单位)</t>
+  </si>
+  <si>
+    <t>锶包合物 (1个单位)</t>
+  </si>
+  <si>
+    <t>氮同位素 (414个单位)</t>
+  </si>
+  <si>
+    <t>重水 (173个单位)</t>
+  </si>
+  <si>
+    <t>液化臭氧 (691个单位)</t>
+  </si>
+  <si>
+    <t>锶包合物 (173个单位)</t>
+  </si>
+  <si>
+    <t>重水 (104个单位)</t>
+  </si>
+  <si>
+    <t>液化臭氧 (55个单位)</t>
+  </si>
+  <si>
+    <t>氧同位素 (483个单位)</t>
+  </si>
+  <si>
+    <t>重水 (1381个单位)</t>
+  </si>
+  <si>
+    <t>锶包合物 (35个单位)</t>
+  </si>
+  <si>
+    <t>氦同位素 (483个单位)</t>
+  </si>
+  <si>
+    <t>氢同位素 (483个单位)</t>
+  </si>
+  <si>
+    <t>重水 (691个单位)</t>
+  </si>
+  <si>
+    <t>液化臭氧 (1381个单位)</t>
+  </si>
+  <si>
+    <t>锶包合物 (69个单位)</t>
+  </si>
+  <si>
+    <t>重水 (345个单位)</t>
+  </si>
+  <si>
+    <t>锶包合物 (104个单位)</t>
+  </si>
+  <si>
+    <t>氢同位素 (414个单位)</t>
+  </si>
+  <si>
+    <t>氧同位素 (414个单位)</t>
+  </si>
+  <si>
+    <t>氮同位素 (483个单位)</t>
+  </si>
+  <si>
+    <t>氦同位素 (414个单位)</t>
+  </si>
+  <si>
+    <t>高密度黑闪冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度电冰体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度白釉冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度聚合冰体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度蓝冰矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度清冰锥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度粗蓝冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度富清冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度光滑聚合冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度朴白釉冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度加里多斯冰矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度冰晶矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沸石</t>
+  </si>
+  <si>
+    <t>富沸石</t>
+  </si>
+  <si>
+    <t>富钾盐</t>
   </si>
   <si>
     <t>富柯石英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>富沥青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钾盐</t>
   </si>
   <si>
     <t>柯石英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沥青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥贝尔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水硼砂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰斯贝矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希莫非特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同位原矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>片麻岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑赭石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克洛基石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双多特石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾克诺岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀沸石</t>
+  </si>
+  <si>
+    <t>耀钾盐</t>
+  </si>
+  <si>
+    <t>耀柯石英</t>
+  </si>
+  <si>
+    <t>耀沥青</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (8000个单位)</t>
+  </si>
+  <si>
+    <t>类银超金属 (400个单位)</t>
+  </si>
+  <si>
+    <t>标准大气 (65个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (9200个单位)</t>
+  </si>
+  <si>
+    <t>类银超金属 (460个单位)</t>
+  </si>
+  <si>
+    <t>标准大气 (75个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (16000个单位)</t>
+  </si>
+  <si>
+    <t>类银超金属 (800个单位)</t>
+  </si>
+  <si>
+    <t>标准大气 (130个单位)</t>
+  </si>
+  <si>
+    <t>蒸发岩沉积物 (130个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (4000个单位)</t>
+  </si>
+  <si>
+    <t>蒸发岩沉积物 (65个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (4600个单位)</t>
+  </si>
+  <si>
+    <t>蒸发岩沉积物 (75个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (6000个单位)</t>
+  </si>
+  <si>
+    <t>烃类 (65个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (6900个单位)</t>
+  </si>
+  <si>
+    <t>烃类 (75个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (12000个单位)</t>
+  </si>
+  <si>
+    <t>烃类 (130个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (2000个单位)</t>
+  </si>
+  <si>
+    <t>硅酸盐 (65个单位)</t>
+  </si>
+  <si>
+    <t>类晶体胶矿 (2300个单位)</t>
+  </si>
+  <si>
+    <t>硅酸盐 (75个单位)</t>
+  </si>
+  <si>
+    <t>硅酸盐 (130个单位)</t>
   </si>
 </sst>
 </file>
@@ -874,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -891,10 +1141,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -915,18 +1165,18 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -938,12 +1188,12 @@
         <v>0.1</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -955,12 +1205,12 @@
         <v>0.1</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -972,12 +1222,12 @@
         <v>0.1</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -988,7 +1238,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -999,7 +1249,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1010,7 +1260,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -1025,12 +1275,12 @@
         <v>0.15</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -1045,12 +1295,12 @@
         <v>0.15</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -1065,12 +1315,12 @@
         <v>0.15</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1084,7 +1334,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1098,7 +1348,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1112,7 +1362,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1133,12 +1383,12 @@
         <v>0.3</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1159,12 +1409,12 @@
         <v>0.3</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1185,12 +1435,12 @@
         <v>0.3</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1210,7 +1460,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1230,7 +1480,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1250,7 +1500,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -1268,12 +1518,12 @@
         <v>0.35</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1291,12 +1541,12 @@
         <v>0.35</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -1314,12 +1564,12 @@
         <v>0.35</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1336,7 +1586,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1353,7 +1603,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1370,7 +1620,7 @@
     </row>
     <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1388,12 +1638,12 @@
         <v>0.6</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1411,12 +1661,12 @@
         <v>0.6</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -1434,12 +1684,12 @@
         <v>0.6</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1456,7 +1706,7 @@
     </row>
     <row r="30" spans="1:11" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1473,7 +1723,7 @@
     </row>
     <row r="31" spans="1:11" ht="14.25">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1490,7 +1740,7 @@
     </row>
     <row r="32" spans="1:11" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -1508,12 +1758,12 @@
         <v>1.2</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -1531,12 +1781,12 @@
         <v>1.2</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -1554,12 +1804,12 @@
         <v>1.2</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1576,7 +1826,7 @@
     </row>
     <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1593,7 +1843,7 @@
     </row>
     <row r="37" spans="1:11" ht="14.25">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1610,7 +1860,7 @@
     </row>
     <row r="38" spans="1:11" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -1628,12 +1878,12 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -1651,12 +1901,12 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -1674,12 +1924,12 @@
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25">
       <c r="A41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1696,7 +1946,7 @@
     </row>
     <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1713,7 +1963,7 @@
     </row>
     <row r="43" spans="1:11" ht="14.25">
       <c r="A43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1730,7 +1980,7 @@
     </row>
     <row r="44" spans="1:11" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -1751,12 +2001,12 @@
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45">
         <v>100</v>
@@ -1777,12 +2027,12 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>100</v>
@@ -1803,12 +2053,12 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25">
       <c r="A47" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1828,7 +2078,7 @@
     </row>
     <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1848,7 +2098,7 @@
     </row>
     <row r="49" spans="1:11" ht="14.25">
       <c r="A49" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1868,7 +2118,7 @@
     </row>
     <row r="50" spans="1:11" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B50">
         <v>100</v>
@@ -1889,12 +2139,12 @@
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25">
       <c r="A51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <v>100</v>
@@ -1915,12 +2165,12 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25">
       <c r="A52" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -1941,12 +2191,12 @@
         <v>3</v>
       </c>
       <c r="K52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25">
       <c r="A53" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1966,7 +2216,7 @@
     </row>
     <row r="54" spans="1:11" ht="14.25">
       <c r="A54" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1986,7 +2236,7 @@
     </row>
     <row r="55" spans="1:11" ht="14.25">
       <c r="A55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2006,7 +2256,7 @@
     </row>
     <row r="56" spans="1:11" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B56">
         <v>100</v>
@@ -2024,12 +2274,12 @@
         <v>5</v>
       </c>
       <c r="K56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57">
         <v>100</v>
@@ -2047,12 +2297,12 @@
         <v>5</v>
       </c>
       <c r="K57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25">
       <c r="A58" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58">
         <v>100</v>
@@ -2070,12 +2320,12 @@
         <v>5</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25">
       <c r="A59" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2092,7 +2342,7 @@
     </row>
     <row r="60" spans="1:11" ht="14.25">
       <c r="A60" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2109,7 +2359,7 @@
     </row>
     <row r="61" spans="1:11" ht="14.25">
       <c r="A61" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2126,7 +2376,7 @@
     </row>
     <row r="62" spans="1:11" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>100</v>
@@ -2144,12 +2394,12 @@
         <v>8</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25">
       <c r="A63" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>100</v>
@@ -2167,12 +2417,12 @@
         <v>8</v>
       </c>
       <c r="K63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.25">
       <c r="A64" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>100</v>
@@ -2190,12 +2440,12 @@
         <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.25">
       <c r="A65" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2212,7 +2462,7 @@
     </row>
     <row r="66" spans="1:11" ht="14.25">
       <c r="A66" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2229,7 +2479,7 @@
     </row>
     <row r="67" spans="1:11" ht="14.25">
       <c r="A67" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2246,7 +2496,7 @@
     </row>
     <row r="68" spans="1:11" ht="14.25">
       <c r="A68" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B68">
         <v>100</v>
@@ -2264,12 +2514,12 @@
         <v>16</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.25">
       <c r="A69" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69">
         <v>100</v>
@@ -2287,12 +2537,12 @@
         <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.25">
       <c r="A70" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70">
         <v>100</v>
@@ -2310,12 +2560,12 @@
         <v>16</v>
       </c>
       <c r="K70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25">
       <c r="A71" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2332,7 +2582,7 @@
     </row>
     <row r="72" spans="1:11" ht="14.25">
       <c r="A72" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2349,7 +2599,7 @@
     </row>
     <row r="73" spans="1:11" ht="14.25">
       <c r="A73" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2366,7 +2616,7 @@
     </row>
     <row r="74" spans="1:11" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>100</v>
@@ -2387,12 +2637,12 @@
         <v>16</v>
       </c>
       <c r="K74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25">
       <c r="A75" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75">
         <v>100</v>
@@ -2413,12 +2663,12 @@
         <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25">
       <c r="A76" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76">
         <v>100</v>
@@ -2439,12 +2689,12 @@
         <v>16</v>
       </c>
       <c r="K76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.25">
       <c r="A77" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2464,7 +2714,7 @@
     </row>
     <row r="78" spans="1:11" ht="14.25">
       <c r="A78" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2484,7 +2734,7 @@
     </row>
     <row r="79" spans="1:11" ht="14.25">
       <c r="A79" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2504,7 +2754,7 @@
     </row>
     <row r="80" spans="1:11" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B80">
         <v>100</v>
@@ -2522,12 +2772,12 @@
         <v>16</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.25">
       <c r="A81" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B81">
         <v>100</v>
@@ -2545,12 +2795,12 @@
         <v>16</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="14.25">
       <c r="A82" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82">
         <v>100</v>
@@ -2568,12 +2818,12 @@
         <v>16</v>
       </c>
       <c r="K82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="14.25">
       <c r="A83" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2590,7 +2840,7 @@
     </row>
     <row r="84" spans="1:11" ht="14.25">
       <c r="A84" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2607,7 +2857,7 @@
     </row>
     <row r="85" spans="1:11" ht="14.25">
       <c r="A85" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2624,7 +2874,7 @@
     </row>
     <row r="86" spans="1:11" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -2642,12 +2892,12 @@
         <v>16</v>
       </c>
       <c r="K86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="14.25">
       <c r="A87" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87">
         <v>100</v>
@@ -2665,12 +2915,12 @@
         <v>16</v>
       </c>
       <c r="K87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="14.25">
       <c r="A88" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -2688,12 +2938,12 @@
         <v>16</v>
       </c>
       <c r="K88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="14.25">
       <c r="A89" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2710,7 +2960,7 @@
     </row>
     <row r="90" spans="1:11" ht="14.25">
       <c r="A90" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2727,7 +2977,7 @@
     </row>
     <row r="91" spans="1:11" ht="14.25">
       <c r="A91" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2740,74 +2990,6 @@
       </c>
       <c r="I91">
         <v>352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="14.25">
-      <c r="A92" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92">
-        <v>100</v>
-      </c>
-      <c r="D92">
-        <v>2000</v>
-      </c>
-      <c r="E92">
-        <v>400</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="14.25">
-      <c r="A93" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93">
-        <v>100</v>
-      </c>
-      <c r="D93">
-        <v>2300</v>
-      </c>
-      <c r="E93">
-        <v>460</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14.25">
-      <c r="A94" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94">
-        <v>100</v>
-      </c>
-      <c r="D94">
-        <v>6000</v>
-      </c>
-      <c r="E94">
-        <v>400</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14.25">
-      <c r="A95" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95">
-        <v>100</v>
-      </c>
-      <c r="D95">
-        <v>6900</v>
-      </c>
-      <c r="E95">
-        <v>460</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="14.25">
@@ -2842,4 +3024,565 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
+    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="17" max="17" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.75" customWidth="1"/>
+    <col min="19" max="19" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.75" customWidth="1"/>
+    <col min="21" max="21" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" customWidth="1"/>
+    <col min="23" max="24" width="22.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" t="s">
+        <v>163</v>
+      </c>
+      <c r="U3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W4" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>